--- a/feedback_forms/processed_versions/xl_workbooks/generic_operator_feedback_v002_populated_02.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/generic_operator_feedback_v002_populated_02.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123EE6D-A129-4E25-880F-9A188D711921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="okpoMu5exZnmbZMc7Pg54El5QPoEB+Qu7v66yiZ6r853//FBjjsPcpQ8054oIScasVH4iUnvZNnTosB0JatxJg==" workbookSaltValue="dbhltgDjMI7yh0VywCqN8Q==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC29BF-3624-4DE1-8498-D6813FB260DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="YolAQ5HaYdNBmGkU+s5Xlk/YEZV8evpaGiEPBvD+BdoTIEIywQSdLhqIU1v31lPHE7T+bj3MO1q5cQnR4V8uCQ==" workbookSaltValue="dFvh9ANB9KKRkw47okP0Vg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="5013" yWindow="1753" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4367" yWindow="1793" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <definedName name="jinja_re_monitored_concentration">'Feedback Form'!$D$59</definedName>
     <definedName name="jinja_re_monitored_timestamp">'Feedback Form'!$D$58</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1462,24 +1462,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2579,7 +2576,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -2874,7 +2873,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="25"/>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="55" t="s">
         <v>183</v>
       </c>
       <c r="E23" s="46"/>
@@ -2885,7 +2884,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="55" t="s">
         <v>185</v>
       </c>
       <c r="E24" s="25"/>
@@ -2895,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="56" t="s">
         <v>197</v>
       </c>
       <c r="E25" s="25"/>
@@ -2905,7 +2904,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="55" t="s">
         <v>189</v>
       </c>
       <c r="E26" s="46"/>
@@ -2916,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="55" t="s">
         <v>193</v>
       </c>
       <c r="E27" s="46"/>
@@ -2927,7 +2926,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="57" t="s">
         <v>184</v>
       </c>
       <c r="E28" s="46"/>
@@ -3082,7 +3081,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="43"/>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="54" t="s">
         <v>180</v>
       </c>
       <c r="G40" s="26"/>
@@ -3212,7 +3211,7 @@
         <v>147</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="54" t="s">
         <v>192</v>
       </c>
       <c r="E51" s="20"/>
@@ -3328,7 +3327,7 @@
       <c r="G63" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PzlBh2a2XeTE1yY/WOFL7MD5sgz8jGdt3DuMmyw3VpykvF6neHP4ZkM+Devjw3cXhfH4SnsfChCofvC15rt+IA==" saltValue="RWsZVzDkBEkwtPSI2S6Bzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6omoevm4DXJEdVIvIfdATRl13P1WjwOceFyd5FyZArPNrNar3+roRxP4nPoUlEfcBclpVKYXswhqkbdvCqFfNw==" saltValue="9+R/YF4FkMg+YFDLGhvhDA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D40">
     <cfRule type="expression" dxfId="2" priority="12">
       <formula xml:space="preserve"> IF(LEFT($D$40, 13)="Please Select", TRUE)</formula>
@@ -3431,7 +3430,7 @@
       <c r="B12" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="53">
         <v>45841</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -3440,7 +3439,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B13" s="13"/>
-      <c r="C13" s="56"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
@@ -3450,7 +3449,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B15" s="13"/>
-      <c r="C15" s="56"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
@@ -3509,7 +3508,7 @@
       <c r="D26" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RKn/BrRLFO+4zX/rUxTVD/WjfwvqiO0SFzT3Ms/0vwVJQBpu36PbUZ++9dBhhjBiM24w4hABPiGKTIBtoI3NuQ==" saltValue="18w3E1dipO/q3eHxEJgW4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="miViZKkaXc55UunoXNKnV4TosXkkALSKlSLy6t9FZWhcHKpk7CBQRToQCLKGIETImJsRSSbZjESMUZQB7Ihg3Q==" saltValue="zcVQv6zmY3fMdhjBMgV0Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4632,7 +4631,7 @@
       <c r="G118" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pxPlXaHRBWgABKRVNBR1ObLT3X3j0FVSVBlcQHtpbvQlugd9VGZo8pGpWxo6TyCPnRPuYRLwN8bBt0cfQvyecw==" saltValue="D7pJy2OQ/S1sp6fbSmfoyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wJPdjLU+j7ZwvffSNhKK94vPs3AzkKlyDUWIF+k3GxoxM7APvONIUQdovYUCdXgOtmDzfnDEenDvWB9l2mkmNg==" saltValue="sTOYPnGcdg3OrQ579MTffQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F18 F21:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$11</formula>
@@ -4968,7 +4967,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RCHOIXj4I1rslLGu1bas8mxStRwyJ2ZMYdy+hmu+xXBSGieZE8/2iZ9gm+6ASKd2zZteawrFzC4R+av5sqiVrA==" saltValue="CfkaNZmsqMvlQsURvabICA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DeAmt+MrG5WqlWKht8Uo5o3pa54cD7TA/3TF0ah2MmAT2/qo0zQVHjlLJ4MfTdrZRVsWkkG2VxH5+6BhdLe3Ew==" saltValue="LDcKVAS00wfiq8xD1MftLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
@@ -5049,7 +5048,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DJjXhahwDNU4zX+sgr8FivOrO6D/gXgknkxXq4Lc68Zsf6G+VbXKB7flPHgTHOb8tXJN8nKIm1BAzsiqXx//GQ==" saltValue="KhRUcpuMumftEhnMBWAFQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kJ3fGmAmCVQ3/BxaVZWZfpJeSjoFPjuhEAD852LGWLDzZ0ARYWb30UIOkDv3W05QWpAMJYacG+CJi7tNxXNiOA==" saltValue="zLFX8eSw5dFWJwlBdj+wjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5136,7 +5135,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z/aZnYFfKY7stzI0vjqqPW8pgAbOWeWVy4tfkkkUQasCSo+/mxzKhXgytSWJjIcFojX25K+/K3H9NxIBpNZM5g==" saltValue="67P8yTH0UJQ35YKpWIbVmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WL49qk5Sx5/lEHc2ER2RUujaE6O2A+VMCewtIlJDOUZZ2ICMSBXQ0kAYLbywA2Jiw8tC170BbFBCosujNPBvQg==" saltValue="zKyvSCoz8F7F8xg0+3w9Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5599,7 +5598,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IXnCE47Avuof1KMtLY5aiz3ciGTyG7O9GXRoU4iz9WLvgvy/il7cu8tcTEqIClF2bLnwGvFFQoIhZpW+yuW1qQ==" saltValue="0gnTf4lPhl0cFoNm+9a/hA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nuKC8ed3gIMsK4t5gyQ0FrV8I8oTNT0GXOR8p8OmGiP5FL6w9pJQyjwSBubUeay9wQXmDAeSEITRxmZqnxKPqA==" saltValue="AgKV34gEFkjDAqiKRnH7fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F37">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -5610,17 +5609,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5855,6 +5843,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5865,17 +5864,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5894,6 +5882,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
